--- a/Quartieri_Roma.xlsx
+++ b/Quartieri_Roma.xlsx
@@ -8,334 +8,123 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roberto\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4E70504-5F3B-4062-AECD-7B7E1063365F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9922ED39-D3D6-46DD-BE25-3C8A2BE74DBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Quartieri_Roma" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t>Q. I Flaminio</t>
   </si>
   <si>
-    <t>41°55?34.7?N</t>
-  </si>
-  <si>
-    <t>12°28?09.72?E</t>
-  </si>
-  <si>
     <t>Q. II Parioli</t>
   </si>
   <si>
-    <t>41°55?20.53?N</t>
-  </si>
-  <si>
-    <t>12°29?32.53?E</t>
-  </si>
-  <si>
     <t>Q. III Pinciano</t>
   </si>
   <si>
-    <t>41°54?46.25?N</t>
-  </si>
-  <si>
-    <t>12°29?21.15?E</t>
-  </si>
-  <si>
     <t>Q. IV Salario</t>
   </si>
   <si>
-    <t>41°54?50.14?N</t>
-  </si>
-  <si>
-    <t>12°30?01.77?E</t>
-  </si>
-  <si>
     <t>Q. V Nomentano</t>
   </si>
   <si>
-    <t>41°54?54.22?N</t>
-  </si>
-  <si>
-    <t>12°31?04.68?E</t>
-  </si>
-  <si>
     <t>Q. VI Tiburtino</t>
   </si>
   <si>
-    <t>41°54?03.93?N</t>
-  </si>
-  <si>
-    <t>12°31?36.96?E</t>
-  </si>
-  <si>
     <t>Q. VII Prenestino-Labicano</t>
   </si>
   <si>
-    <t>41°53?06.72?N</t>
-  </si>
-  <si>
-    <t>12°32?17.16?E</t>
-  </si>
-  <si>
     <t>Q. VIII Tuscolano</t>
   </si>
   <si>
-    <t>41°52?08.54?N</t>
-  </si>
-  <si>
-    <t>12°32?11.3?E</t>
-  </si>
-  <si>
     <t>Q. IX Appio-Latino</t>
   </si>
   <si>
-    <t>41°52?24.24?N</t>
-  </si>
-  <si>
-    <t>12°30?58.68?E</t>
-  </si>
-  <si>
     <t>Q. X Ostiense</t>
   </si>
   <si>
-    <t>41°51?49.14?N</t>
-  </si>
-  <si>
-    <t>12°28?44.08?E</t>
-  </si>
-  <si>
     <t>Q. XI Portuense</t>
   </si>
   <si>
-    <t>41°51?18.86?N</t>
-  </si>
-  <si>
-    <t>12°27?10.44?E</t>
-  </si>
-  <si>
     <t>Q. XII Gianicolense</t>
   </si>
   <si>
-    <t>41°52?22.28?N</t>
-  </si>
-  <si>
-    <t>12°26?38.32?E</t>
-  </si>
-  <si>
     <t>Q. XIII Aurelio</t>
   </si>
   <si>
-    <t>41°53?48.12?N</t>
-  </si>
-  <si>
-    <t>12°26?27.96?E</t>
-  </si>
-  <si>
     <t>Q. XIV Trionfale</t>
   </si>
   <si>
-    <t>41°55?23.54?N</t>
-  </si>
-  <si>
-    <t>12°26?16.56?E</t>
-  </si>
-  <si>
     <t>Q. XV Della Vittoria</t>
   </si>
   <si>
-    <t>41°55?48.53?N</t>
-  </si>
-  <si>
-    <t>12°27?24.1?E</t>
-  </si>
-  <si>
     <t>Q. XVI Monte Sacro</t>
   </si>
   <si>
-    <t>41°56?37.08?N</t>
-  </si>
-  <si>
-    <t>12°31?49.14?E</t>
-  </si>
-  <si>
     <t>Q. XVII Trieste</t>
   </si>
   <si>
-    <t>41°55?33.35?N</t>
-  </si>
-  <si>
-    <t>12°30?48.21?E</t>
-  </si>
-  <si>
     <t>Q. XVIII Tor di Quinto</t>
   </si>
   <si>
-    <t>41°56?42.67?N</t>
-  </si>
-  <si>
-    <t>12°28?37.14?E</t>
-  </si>
-  <si>
     <t>Q. XIX Prenestino-Centocelle</t>
   </si>
   <si>
-    <t>41°53?02.8?N</t>
-  </si>
-  <si>
-    <t>12°34?00.98?E</t>
-  </si>
-  <si>
     <t>Q. XX Ardeatino</t>
   </si>
   <si>
-    <t>41°50?41.28?N</t>
-  </si>
-  <si>
-    <t>12°30?12.24?E</t>
-  </si>
-  <si>
     <t>Q. XXI Pietralata</t>
   </si>
   <si>
-    <t>41°54?55.37?N</t>
-  </si>
-  <si>
-    <t>12°33?20.12?E</t>
-  </si>
-  <si>
     <t>Q. XXII Collatino</t>
   </si>
   <si>
-    <t>41°54?13.5?N</t>
-  </si>
-  <si>
-    <t>12°33?17.6?E</t>
-  </si>
-  <si>
     <t>Q. XXIII Alessandrino</t>
   </si>
   <si>
-    <t>41°53?03.48?N</t>
-  </si>
-  <si>
-    <t>12°34?45.12?E</t>
-  </si>
-  <si>
     <t>Q. XXIV Don Bosco</t>
   </si>
   <si>
-    <t>41°51?30.27?N</t>
-  </si>
-  <si>
-    <t>12°33?48.17?E</t>
-  </si>
-  <si>
     <t>Q. XXV Appio Claudio</t>
   </si>
   <si>
-    <t>41°50?30.84?N</t>
-  </si>
-  <si>
-    <t>12°33?33.48?E</t>
-  </si>
-  <si>
     <t>Q. XXVI Appio-Pignatelli</t>
   </si>
   <si>
-    <t>41°50?29.04?N</t>
-  </si>
-  <si>
-    <t>12°32?32.64?E</t>
-  </si>
-  <si>
     <t>Q. XXVII Primavalle</t>
   </si>
   <si>
-    <t>41°55?32.81?N</t>
-  </si>
-  <si>
-    <t>12°24?57.95?E</t>
-  </si>
-  <si>
     <t>Q. XXVIII Monte Sacro Alto</t>
   </si>
   <si>
-    <t>41°56?51.51?N</t>
-  </si>
-  <si>
-    <t>12°33?14.85?E</t>
-  </si>
-  <si>
     <t>Q. XXIX Ponte Mammolo</t>
   </si>
   <si>
-    <t>41°56?15.59?N</t>
-  </si>
-  <si>
-    <t>12°33?57.64?E</t>
-  </si>
-  <si>
     <t>Q. XXX San Basilio</t>
   </si>
   <si>
-    <t>41°56?45.88?N</t>
-  </si>
-  <si>
-    <t>12°34?51.87?E</t>
-  </si>
-  <si>
     <t>Q. XXXI Giuliano-Dalmata</t>
   </si>
   <si>
-    <t>41°48?58.73?N</t>
-  </si>
-  <si>
-    <t>12°29?59.56?E</t>
-  </si>
-  <si>
     <t>Q. XXXII Europa</t>
   </si>
   <si>
-    <t>41°49?52.63?N</t>
-  </si>
-  <si>
-    <t>12°28?10.83?E</t>
-  </si>
-  <si>
     <t>Q. XXXIII Lido di Ostia Ponente</t>
   </si>
   <si>
-    <t>41°44?24.36?N</t>
-  </si>
-  <si>
-    <t>12°15?56.88?E</t>
-  </si>
-  <si>
     <t>Q. XXXIV Lido di Ostia Levante</t>
   </si>
   <si>
-    <t>41°43?56.28?N</t>
-  </si>
-  <si>
-    <t>12°17?27.6?E</t>
-  </si>
-  <si>
     <t>Q. XXXV Lido di Castel Fusano</t>
-  </si>
-  <si>
-    <t>41°43?01.2?N</t>
-  </si>
-  <si>
-    <t>12°19?12.36?E</t>
   </si>
   <si>
     <t>41°55′34.7″N</t>
@@ -1412,8 +1201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,794 +1212,389 @@
     <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" t="s">
-        <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" t="s">
-        <v>85</v>
-      </c>
-      <c r="C29" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B30" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>93</v>
-      </c>
-      <c r="B32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5546875" customWidth="1"/>
-    <col min="3" max="3" width="32" customWidth="1"/>
-  </cols>
-  <sheetData>
     <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>106</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>109</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>110</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>111</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>114</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>119</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>125</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>128</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>129</v>
+        <v>59</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>134</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>136</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>137</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>138</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>142</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>145</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>147</v>
+        <v>77</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>149</v>
+        <v>79</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>150</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>152</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>153</v>
+        <v>83</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>154</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>155</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>157</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>159</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>161</v>
+        <v>91</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>163</v>
+        <v>93</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>90</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>165</v>
+        <v>95</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>166</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>167</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>170</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>171</v>
+        <v>101</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>172</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>174</v>
+        <v>104</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
